--- a/doc/20_基本設計/01_画面系/【CS】基本設計-画面遷移図.xlsx
+++ b/doc/20_基本設計/01_画面系/【CS】基本設計-画面遷移図.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab9e30a70c0c263a/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\certificate-online\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{D7242ACF-2964-4BD4-A721-D4CF33338740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56917D6B-77C2-403D-984F-6C130A7E586D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A1D8DE-27CD-4AAA-AE5E-0A2796C19278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8285698-46DE-4A65-BF92-0EF996685C37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -120,11 +120,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>承認完了一覧</t>
+    <t>詳細</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>詳細</t>
+    <t>承認/拒否</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳﾆﾝ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ｷｮﾋ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資格名</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｶｸ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ﾒｲ</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -132,11 +148,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,21 +161,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -168,7 +184,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -184,7 +200,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -193,7 +209,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -202,7 +218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +228,15 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -507,7 +532,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +568,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +605,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -743,7 +769,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ユーザーホームページ</a:t>
+            <a:t>ホームページ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
             <a:solidFill>
@@ -758,15 +784,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>213755</xdr:colOff>
+      <xdr:colOff>267095</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>69065</xdr:rowOff>
+      <xdr:rowOff>61445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>315335</xdr:colOff>
+      <xdr:colOff>368675</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>107186</xdr:rowOff>
+      <xdr:rowOff>99566</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -781,8 +807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6309755" y="9205445"/>
-          <a:ext cx="1930380" cy="563901"/>
+          <a:off x="6972695" y="11796245"/>
+          <a:ext cx="2113260" cy="723921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,65 +975,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>131333</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>168055</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91906299-94AB-4722-A129-B8867227AB8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3179333" y="9471660"/>
-          <a:ext cx="1636507" cy="8035"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1279,13 +1246,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>131333</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>168055</xdr:rowOff>
+      <xdr:rowOff>194725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>213755</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>496</xdr:rowOff>
+      <xdr:colOff>267095</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>194806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1303,8 +1270,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3130422" cy="7701"/>
+          <a:off x="3484133" y="12158125"/>
+          <a:ext cx="3488562" cy="81"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1339,15 +1306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>521624</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56804</xdr:rowOff>
+      <xdr:colOff>422564</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>535478</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>153786</xdr:rowOff>
+      <xdr:colOff>436418</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1362,8 +1329,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9056024" y="10244744"/>
-          <a:ext cx="623454" cy="622762"/>
+          <a:off x="9810404" y="17072264"/>
+          <a:ext cx="684414" cy="782782"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -1442,8 +1409,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815839" y="9166860"/>
-          <a:ext cx="1427018" cy="346924"/>
+          <a:off x="5242559" y="11765280"/>
+          <a:ext cx="1609898" cy="453604"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1488,15 +1455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332509</xdr:colOff>
+      <xdr:colOff>263929</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>38793</xdr:rowOff>
+      <xdr:rowOff>160713</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>431120</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>112079</xdr:rowOff>
+      <xdr:colOff>362540</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>5399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1511,8 +1478,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6428509" y="10226733"/>
-          <a:ext cx="1927411" cy="599066"/>
+          <a:off x="6969529" y="13267113"/>
+          <a:ext cx="2110291" cy="759086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1586,8 +1553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6432665" y="11254740"/>
-          <a:ext cx="1927411" cy="553346"/>
+          <a:off x="7042265" y="14493240"/>
+          <a:ext cx="2110291" cy="713366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,7 +1595,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>承認待ち一覧画面</a:t>
+            <a:t>タスク一覧画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1640,13 +1607,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>131333</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>168055</xdr:rowOff>
+      <xdr:rowOff>194725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>332509</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>163066</xdr:rowOff>
+      <xdr:colOff>263929</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>83056</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1664,8 +1631,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3249176" cy="1046571"/>
+          <a:off x="3484133" y="12158125"/>
+          <a:ext cx="3485396" cy="1488531"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1702,13 +1669,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>131333</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>168055</xdr:rowOff>
+      <xdr:rowOff>194725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>336665</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>116653</xdr:rowOff>
+      <xdr:rowOff>143323</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1726,12 +1693,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3179333" y="9479695"/>
-          <a:ext cx="3253332" cy="2051718"/>
+          <a:off x="3484133" y="12158125"/>
+          <a:ext cx="3558132" cy="2691798"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 49143"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -1890,7 +1857,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>承認待ち一覧</a:t>
+            <a:t>タスク一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2062,105 +2029,59 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426271</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>143323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>48073</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>435276</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>269053</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6E5B71-A232-8FB3-E8BE-CA2492F5278E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1731B21C-5B06-412D-9FC2-4E20BCC4E850}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="85" idx="1"/>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="53" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4808220" y="12679680"/>
-          <a:ext cx="1645920" cy="9973"/>
+        <a:xfrm flipH="1">
+          <a:off x="9143551" y="14849923"/>
+          <a:ext cx="9005" cy="1268730"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7446530"/>
+          </a:avLst>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
+          <a:prstDash val="sysDash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="84" name="直線コネクタ 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197AE030-C41E-3ABB-A787-173445EB52A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="11529060"/>
-          <a:ext cx="7620" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2172,22 +2093,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>456751</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>149486</xdr:rowOff>
+      <xdr:colOff>426271</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="正方形/長方形 84">
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402958F6-921C-4B2A-A83F-B3FBAFD4DBBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AAD8F4-7FDF-A073-C852-80130241220B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2195,8 +2116,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6454140" y="12412980"/>
-          <a:ext cx="1927411" cy="553346"/>
+          <a:off x="7033260" y="15735300"/>
+          <a:ext cx="2110291" cy="766706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2237,7 +2158,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>承認完了一覧画面</a:t>
+            <a:t>タスク詳細画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2246,52 +2167,56 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>41687</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>422565</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>189114</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+        <xdr:cNvPr id="46" name="コネクタ: カギ線 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D42BF0-0F2C-4350-B259-E27E681436BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71ADE158-ABB9-4312-8A3D-6256EA2F3B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="53" idx="2"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8359140" y="10538460"/>
-          <a:ext cx="678180" cy="7620"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8468581" y="16121831"/>
+          <a:ext cx="961649" cy="1721998"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="28575">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:tailEnd type="triangle"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2303,39 +2228,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426271</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>116653</xdr:rowOff>
+      <xdr:colOff>362540</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>83056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>435276</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>86173</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>94211</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>26324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+        <xdr:cNvPr id="52" name="コネクタ: カギ線 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1731B21C-5B06-412D-9FC2-4E20BCC4E850}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43BD7A89-65AA-4F66-9DCB-7245BE34A734}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="53" idx="3"/>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="31" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8351071" y="11531413"/>
-          <a:ext cx="9005" cy="2247900"/>
+        <a:xfrm>
+          <a:off x="9079820" y="13646656"/>
+          <a:ext cx="1072791" cy="3425608"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -12354470"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -2365,22 +2288,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426271</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>12326</xdr:rowOff>
+      <xdr:colOff>372931</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>187586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52">
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AAD8F4-7FDF-A073-C852-80130241220B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920C0BEB-1A5C-45FB-B4DC-3F58D3440AA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,8 +2311,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6423660" y="13502640"/>
-          <a:ext cx="1927411" cy="553346"/>
+          <a:off x="6979920" y="10469880"/>
+          <a:ext cx="2110291" cy="766706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2430,7 +2353,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>タスク詳細</a:t>
+            <a:t>資格詳細画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2440,44 +2363,45 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426271</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>48073</xdr:rowOff>
+      <xdr:colOff>368675</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>32833</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>456751</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>86173</xdr:rowOff>
+      <xdr:colOff>372931</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>194806</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="コネクタ: カギ線 60">
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9F316AC-78AF-4CBD-92E7-AA48417E34FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8516DD64-8F98-4531-ABEB-FE8B95249A4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="85" idx="3"/>
-          <a:endCxn id="53" idx="3"/>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="57" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8351071" y="12689653"/>
-          <a:ext cx="30480" cy="1089660"/>
+        <a:xfrm flipV="1">
+          <a:off x="9085955" y="10853233"/>
+          <a:ext cx="4256" cy="1304973"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -3575000"/>
+            <a:gd name="adj1" fmla="val 6545489"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:prstDash val="sysDash"/>
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
@@ -2500,10 +2424,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2805,65 +2725,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB572016-5483-4388-A0B4-FC11225F6DD9}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="S69" sqref="S69"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA77" sqref="AA77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="1:16" ht="18">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="29"/>
-      <c r="L2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="31">
+      <c r="O2" s="33">
         <v>45036</v>
       </c>
-      <c r="P2" s="32"/>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2" s="34"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2881,7 +2801,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2899,7 +2819,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -2917,7 +2837,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="22.8">
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2937,7 +2857,7 @@
       <c r="O6" s="12"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2955,7 +2875,7 @@
       <c r="O7" s="12"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2973,7 +2893,7 @@
       <c r="O8" s="12"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="17.399999999999999">
+    <row r="9" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2985,15 +2905,15 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="24"/>
+      <c r="M9" s="26"/>
       <c r="N9" s="7"/>
       <c r="O9" s="12"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="17.399999999999999">
+    <row r="10" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3011,7 +2931,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="17.399999999999999">
+    <row r="11" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3023,15 +2943,15 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="26"/>
       <c r="N11" s="7"/>
       <c r="O11" s="12"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="17.399999999999999">
+    <row r="12" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3049,7 +2969,7 @@
       <c r="O12" s="12"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="17.399999999999999">
+    <row r="13" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -3061,15 +2981,15 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="24"/>
+      <c r="M13" s="26"/>
       <c r="N13" s="7"/>
       <c r="O13" s="12"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="17.399999999999999">
+    <row r="14" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3087,7 +3007,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="17.399999999999999">
+    <row r="15" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3105,7 +3025,7 @@
       <c r="O15" s="12"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="17.399999999999999">
+    <row r="16" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3117,15 +3037,15 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="24"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="7"/>
       <c r="O16" s="12"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="17.399999999999999">
+    <row r="17" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3143,7 +3063,7 @@
       <c r="O17" s="12"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="17.399999999999999">
+    <row r="18" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3161,7 +3081,7 @@
       <c r="O18" s="12"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="17.399999999999999">
+    <row r="19" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3179,7 +3099,7 @@
       <c r="O19" s="12"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="17.399999999999999">
+    <row r="20" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3197,7 +3117,7 @@
       <c r="O20" s="12"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="17.399999999999999">
+    <row r="21" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3209,15 +3129,15 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="24"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="7"/>
       <c r="O21" s="12"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" ht="17.399999999999999">
+    <row r="22" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3235,7 +3155,7 @@
       <c r="O22" s="12"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="17.399999999999999">
+    <row r="23" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3253,7 +3173,7 @@
       <c r="O23" s="12"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="17.399999999999999">
+    <row r="24" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3271,7 +3191,7 @@
       <c r="O24" s="12"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -3289,7 +3209,7 @@
       <c r="O25" s="19"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -3307,7 +3227,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -3325,7 +3245,7 @@
       <c r="O27" s="7"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3343,7 +3263,7 @@
       <c r="O28" s="7"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3361,7 +3281,7 @@
       <c r="O29" s="7"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3379,7 +3299,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3397,7 +3317,7 @@
       <c r="O31" s="7"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3415,7 +3335,7 @@
       <c r="O32" s="7"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3433,7 +3353,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3451,7 +3371,7 @@
       <c r="O34" s="7"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3469,7 +3389,7 @@
       <c r="O35" s="7"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3487,7 +3407,7 @@
       <c r="O36" s="7"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3505,7 +3425,7 @@
       <c r="O37" s="7"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3523,7 +3443,7 @@
       <c r="O38" s="7"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3541,7 +3461,7 @@
       <c r="O39" s="7"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3559,7 +3479,7 @@
       <c r="O40" s="7"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3577,7 +3497,7 @@
       <c r="O41" s="7"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3595,7 +3515,7 @@
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3613,7 +3533,7 @@
       <c r="O43" s="7"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3631,7 +3551,7 @@
       <c r="O44" s="7"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3649,7 +3569,7 @@
       <c r="O45" s="7"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3664,10 +3584,12 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3685,7 +3607,7 @@
       <c r="O47" s="7"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3702,7 +3624,7 @@
       <c r="N48" s="7"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3722,7 +3644,7 @@
       </c>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3740,7 +3662,7 @@
       <c r="O50" s="7"/>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3758,7 +3680,7 @@
       <c r="O51" s="7"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3776,7 +3698,7 @@
       <c r="O52" s="7"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3794,7 +3716,7 @@
       <c r="O53" s="7"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3809,12 +3731,9 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="O54" s="34" t="s">
-        <v>14</v>
-      </c>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3829,10 +3748,12 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
+      <c r="O55" s="23" t="s">
+        <v>14</v>
+      </c>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3850,7 +3771,7 @@
       <c r="O56" s="7"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3868,7 +3789,7 @@
       <c r="O57" s="7"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3886,7 +3807,7 @@
       <c r="O58" s="7"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3904,7 +3825,7 @@
       <c r="O59" s="7"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3919,12 +3840,9 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
-      <c r="O60" s="34" t="s">
-        <v>16</v>
-      </c>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3942,7 +3860,7 @@
       <c r="O61" s="7"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3957,10 +3875,12 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
+      <c r="O62" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3978,7 +3898,7 @@
       <c r="O63" s="7"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3996,7 +3916,7 @@
       <c r="O64" s="7"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -4014,7 +3934,7 @@
       <c r="O65" s="7"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" ht="22.2">
+    <row r="66" spans="1:16" ht="22.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -4023,10 +3943,8 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
-      <c r="I66" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="J66" s="35"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -4034,7 +3952,7 @@
       <c r="O66" s="7"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4048,12 +3966,10 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
-      <c r="O67" s="34" t="s">
-        <v>16</v>
-      </c>
+      <c r="O67" s="23"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4071,7 +3987,7 @@
       <c r="O68" s="7"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4083,13 +3999,15 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="L69" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4107,7 +4025,7 @@
       <c r="O70" s="7"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4125,7 +4043,7 @@
       <c r="O71" s="7"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4143,7 +4061,7 @@
       <c r="O72" s="7"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4161,7 +4079,7 @@
       <c r="O73" s="7"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4179,7 +4097,7 @@
       <c r="O74" s="7"/>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4197,7 +4115,7 @@
       <c r="O75" s="7"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4215,7 +4133,7 @@
       <c r="O76" s="7"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4233,7 +4151,7 @@
       <c r="O77" s="7"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4251,7 +4169,7 @@
       <c r="O78" s="7"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4269,7 +4187,7 @@
       <c r="O79" s="7"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4287,7 +4205,7 @@
       <c r="O80" s="7"/>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4305,7 +4223,7 @@
       <c r="O81" s="7"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4323,7 +4241,7 @@
       <c r="O82" s="7"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4341,7 +4259,7 @@
       <c r="O83" s="7"/>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:16" ht="14.4" thickBot="1">
+    <row r="84" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -4361,17 +4279,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L21:M21"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L21:M21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
